--- a/Info.xlsx
+++ b/Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Harmony-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE47B5D0-FAA5-4C85-BDE6-F9C260BB1183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636DA8ED-CB4F-4588-8949-5EDB5E27AE11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3000" windowWidth="29040" windowHeight="16440" xr2:uid="{9AC52566-6148-4199-B6AD-F6619CE8FF62}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="91">
   <si>
     <t>Mod Name</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>HWYLA Fabric</t>
-  </si>
-  <si>
-    <t>I Am Very Smart</t>
   </si>
   <si>
     <t>Illuminations</t>
@@ -694,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA8FEC0-A65E-482A-9E13-64808DCBBC57}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="V47" sqref="V47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,27 +715,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -747,13 +744,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -762,13 +759,13 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -777,13 +774,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -792,13 +789,13 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -807,13 +804,13 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -822,13 +819,13 @@
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -837,13 +834,13 @@
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -852,146 +849,146 @@
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1000,13 +997,13 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1015,10 +1012,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1028,10 +1025,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1041,9 +1038,11 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
@@ -1052,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1065,7 +1064,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1076,10 +1075,10 @@
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1089,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1100,7 +1099,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1111,7 +1110,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1122,10 +1121,10 @@
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1135,9 +1134,11 @@
         <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
@@ -1146,7 +1147,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1157,10 +1158,10 @@
         <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1170,10 +1171,10 @@
         <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1183,10 +1184,10 @@
         <v>22</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1196,10 +1197,10 @@
         <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1209,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1220,10 +1221,10 @@
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1233,7 +1234,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1244,10 +1245,10 @@
         <v>28</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1257,7 +1258,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1268,10 +1269,10 @@
         <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1281,10 +1282,10 @@
         <v>34</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1294,26 +1295,26 @@
         <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1321,7 +1322,7 @@
         <v>37</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1332,7 +1333,7 @@
         <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1343,206 +1344,207 @@
         <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>40</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>44</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>36</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="1"/>
@@ -1550,23 +1552,23 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="1"/>
@@ -1574,10 +1576,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="1"/>
@@ -1585,101 +1587,101 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="1"/>
@@ -1687,23 +1689,23 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="1"/>
@@ -1711,36 +1713,36 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="1"/>
@@ -1748,10 +1750,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="1"/>
@@ -1759,10 +1761,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="1"/>
@@ -1770,26 +1772,26 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
